--- a/dfinalresults.xlsx
+++ b/dfinalresults.xlsx
@@ -1,96 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Average Shortest Path Length</t>
-  </si>
-  <si>
-    <t>Average Degree Centrality</t>
-  </si>
-  <si>
-    <t>Modularity Index</t>
-  </si>
-  <si>
-    <t>self sufficiency at bus level</t>
-  </si>
-  <si>
-    <t>Generation Shannon Evenness</t>
-  </si>
-  <si>
-    <t>Generation Variety</t>
-  </si>
-  <si>
-    <t>Line Shannon Evenness</t>
-  </si>
-  <si>
-    <t>Line Variety</t>
-  </si>
-  <si>
-    <t>Load Shannon Evenness</t>
-  </si>
-  <si>
-    <t>Load Variety</t>
-  </si>
-  <si>
-    <t>Disparity Generators</t>
-  </si>
-  <si>
-    <t>Disparity Load</t>
-  </si>
-  <si>
-    <t>Disparity Trafo</t>
-  </si>
-  <si>
-    <t>Disparity Lines</t>
-  </si>
-  <si>
-    <t>Overall 70% Redundancy</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,142 +420,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>self sufficiency at bus level</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.3111111111111111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>System Self Sufficiency</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7080109756612277</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Generation Shannon Evenness</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7892663542982413</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Generation Variety</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Line Shannon Evenness</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7219280948873623</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Line Variety</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Load Shannon Evenness</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.7734573119188504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.1648351648351648</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.1155555555555556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.1333333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Load Variety</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Disparity Generators</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5678201542477175</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Disparity Load</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5288308596787999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Disparity Trafo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0.7219280948873623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0.5288308596787999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Disparity Lines</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>0.7993489242141023</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0.9003285870755751</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Overall 70% Redundancy</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1777777777777778</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dfinalresults.xlsx
+++ b/dfinalresults.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7080109756612277</v>
+        <v>0.6926431322749765</v>
       </c>
     </row>
     <row r="4">
@@ -528,51 +528,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Disparity Generators</t>
+          <t>Overall 70% Redundancy</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5678201542477175</v>
+        <v>0.9111111111111111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Disparity Load</t>
+          <t>Disparity Generators</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5288308596787999</v>
+        <v>0.6778822900377038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Disparity Trafo</t>
+          <t>Disparity Load</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.5288308596787999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Disparity Lines</t>
+          <t>Disparity Trafo</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7993489242141023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Overall 70% Redundancy</t>
+          <t>Disparity Lines</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.8101873098292478</v>
       </c>
     </row>
   </sheetData>

--- a/dfinalresults.xlsx
+++ b/dfinalresults.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7892663542982413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -528,51 +528,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Overall 70% Redundancy</t>
+          <t>Disparity Generators</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Disparity Generators</t>
+          <t>Disparity Load</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6778822900377038</v>
+        <v>0.5288308596787999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Disparity Load</t>
+          <t>Disparity Trafo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5288308596787999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Disparity Trafo</t>
+          <t>Disparity Lines</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.7993489242141023</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Disparity Lines</t>
+          <t>Overall 70% Redundancy</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8101873098292478</v>
+        <v>0.9052132701421801</v>
       </c>
     </row>
   </sheetData>

--- a/dfinalresults.xlsx
+++ b/dfinalresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.7892663542982413</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -528,51 +528,111 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Disparity Generators</t>
+          <t>Average Shortest Path Length</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.7734573119188504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Disparity Load</t>
+          <t>Average Degree Centrality</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5288308596787999</v>
+        <v>0.1648351648351648</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Disparity Trafo</t>
+          <t>Modularity Index</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.04000000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Disparity Lines</t>
+          <t>Disparity Generators</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7993489242141023</v>
+        <v>0.6778822900377038</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Overall 70% Redundancy</t>
+          <t>Disparity Load</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9052132701421801</v>
+        <v>0.5288308596787999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Disparity Trafo</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Disparity Lines</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7993489242141023</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Overall n-3 Redundancy</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.3733333333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Loadflow Redundancy</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8000716624479558</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>N-2 Redundancy</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1314285714285714</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Combined Redundancy</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4657501169382636</v>
       </c>
     </row>
   </sheetData>

--- a/dfinalresults.xlsx
+++ b/dfinalresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7734573119188504</v>
+        <v>0.7877551020408163</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1648351648351648</v>
+        <v>0.1619047619047619</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04000000000000001</v>
+        <v>0.01730103806228374</v>
       </c>
     </row>
     <row r="13">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3733333333333334</v>
+        <v>0.4443907156673114</v>
       </c>
     </row>
     <row r="18">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1314285714285714</v>
+        <v>0.08380952380952381</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,77 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4657501169382636</v>
+        <v>0.4419405931287398</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Flex Monte Carlo</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Flex Netzreserve</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Flex Erfolgreiche OPP</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Flex Reserve krit Leitungen</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Flexibilität Gesamt</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Buffer Capacity</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.03024019443551216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Feasible operating region</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.09318236976738642</v>
       </c>
     </row>
   </sheetData>

--- a/dfinalresults.xlsx
+++ b/dfinalresults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,275 +434,284 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Indicator</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>mv_all_high5</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>self sufficiency at bus level</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.2</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>System Self Sufficiency</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Generation Shannon Evenness</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Generation Variety</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Line Shannon Evenness</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Line Variety</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Load Shannon Evenness</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Load Variety</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Average Shortest Path Length</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Average Degree Centrality</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Modularity Index</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Disparity Generators</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Disparity Load</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Disparity Trafo</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Disparity Lines</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Overall n-3 Redundancy</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Loadflow Redundancy</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>N-2 Redundancy</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Combined Redundancy</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Flex Netzreserve</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Flex Reserve krit Leitungen</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Flexibilität Gesamt</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Buffer Capacity</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Feasible operating region</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>System Self Sufficiency</t>
-        </is>
+      <c r="A3" t="n">
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6926431322749765</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Generation Shannon Evenness</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7226104268781663</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.7892663542982413</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Generation Variety</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E3" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Line Shannon Evenness</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="F3" t="n">
         <v>0.7219280948873623</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Line Variety</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="G3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Load Shannon Evenness</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="H3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Load Variety</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="I3" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Average Shortest Path Length</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="J3" t="n">
         <v>0.7877551020408163</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Average Degree Centrality</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="K3" t="n">
         <v>0.1619047619047619</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Modularity Index</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="L3" t="n">
         <v>0.01730103806228374</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Disparity Generators</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.6778822900377038</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Disparity Load</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+      <c r="M3" t="n">
+        <v>0.7006197991047668</v>
+      </c>
+      <c r="N3" t="n">
         <v>0.5288308596787999</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Disparity Trafo</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="O3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Disparity Lines</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+      <c r="P3" t="n">
         <v>0.7993489242141023</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Overall n-3 Redundancy</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.4443907156673114</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Loadflow Redundancy</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.8000716624479558</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>N-2 Redundancy</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.08380952380952381</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Combined Redundancy</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.4419405931287398</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Flex Monte Carlo</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+      <c r="Q3" t="n">
+        <v>0.7093810444874274</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8803114555063555</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.6742857142857143</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.7772985848960349</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.7639525269133622</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.008238576171819447</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3860955515425908</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.158240048813032</v>
+      </c>
+      <c r="Y3" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Flex Netzreserve</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Flex Erfolgreiche OPP</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Flex Reserve krit Leitungen</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flexibilität Gesamt</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Buffer Capacity</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.03024019443551216</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Feasible operating region</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.09318236976738642</v>
       </c>
     </row>
   </sheetData>

--- a/dfinalresults.xlsx
+++ b/dfinalresults.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results Indicator" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -513,7 +513,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mv_all_high5</t>
+          <t>create_cigre_network_mv_all</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7226104268781663</v>
+        <v>0.6926431322749765</v>
       </c>
       <c r="D3" t="n">
         <v>0.7892663542982413</v>
@@ -675,7 +675,7 @@
         <v>0.01730103806228374</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7006197991047668</v>
+        <v>0.6778822900377038</v>
       </c>
       <c r="N3" t="n">
         <v>0.5288308596787999</v>
@@ -687,31 +687,31 @@
         <v>0.7993489242141023</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7093810444874274</v>
+        <v>0.7132495164410058</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8803114555063555</v>
+        <v>0.8000716624479558</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6742857142857143</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7772985848960349</v>
+        <v>0.7400358312239779</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7639525269133622</v>
+        <v>0.8506607418281623</v>
       </c>
       <c r="V3" t="n">
-        <v>0.008238576171819447</v>
+        <v>0.05671071612187747</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3860955515425908</v>
+        <v>0.4536857289750199</v>
       </c>
       <c r="X3" t="n">
-        <v>0.158240048813032</v>
+        <v>0.03164800976260641</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>0.09543142768342244</v>
       </c>
     </row>
   </sheetData>
